--- a/tools/ecc/ecc-1.xlsx
+++ b/tools/ecc/ecc-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/ecc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ecc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3623A05-D21D-9542-8B72-70FB1655564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0D9B5-2C6D-2B4A-A219-D4B6B1E6B072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="3" r:id="rId1"/>
@@ -1100,28 +1100,28 @@
     <t>essential-cybersecurity-controls</t>
   </si>
   <si>
-    <t>The saudi National Cybersecurity Authority developed the essential cybersecurity controls (ECC – 1: 2018)
+    <t>ecc</t>
+  </si>
+  <si>
+    <t>Saudi National Cybersecurity Authority framework for essential cybersecurity controls (ECC)</t>
+  </si>
+  <si>
+    <t>© NCA</t>
+  </si>
+  <si>
+    <t>NCA</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:framework:ecc-1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>The Saudi National Cybersecurity Authority developed the essential cybersecurity controls (ECC – 1: 2018)
 after conducting a comprehensive study of multiple national
 and international cybersecurity frameworks and standards.
 Reference: https://nca.gov.sa/en/legislation?item=191&amp;slug=controls-list</t>
-  </si>
-  <si>
-    <t>ecc</t>
-  </si>
-  <si>
-    <t>Saudi National Cybersecurity Authority framework for essential cybersecurity controls (ECC)</t>
-  </si>
-  <si>
-    <t>© NCA</t>
-  </si>
-  <si>
-    <t>NCA</t>
-  </si>
-  <si>
-    <t>urn:intuitem:risk:framework:ecc-1</t>
-  </si>
-  <si>
-    <t>depth</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8960F201-A0E5-8E4B-B8E0-E91689FF82C0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1561,7 +1561,7 @@
         <v>330</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1569,7 +1569,7 @@
         <v>331</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>332</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>335</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,7 +1617,7 @@
         <v>338</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1625,7 +1625,7 @@
         <v>339</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
         <v>340</v>
@@ -1657,7 +1657,7 @@
         <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>297</v>
